--- a/output/pharma_nordic_example_centralitymetrics.xlsx
+++ b/output/pharma_nordic_example_centralitymetrics.xlsx
@@ -573,7 +573,7 @@
         <v>0.3625730994152047</v>
       </c>
       <c r="F4">
-        <v>0.2056428338727417</v>
+        <v>0.2056428338727421</v>
       </c>
       <c r="G4">
         <v>0.1773469387755102</v>
@@ -628,7 +628,7 @@
         <v>0.2123287671232877</v>
       </c>
       <c r="F5">
-        <v>0.003154190793945067</v>
+        <v>0.00315419079394511</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="P5">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -677,7 +677,7 @@
         <v>0.2683982683982684</v>
       </c>
       <c r="F6">
-        <v>0.01557029016105805</v>
+        <v>0.01557029016105826</v>
       </c>
       <c r="G6">
         <v>0.2401</v>
@@ -732,7 +732,7 @@
         <v>0.223021582733813</v>
       </c>
       <c r="F7">
-        <v>0.00585545883019178</v>
+        <v>0.005855458830191925</v>
       </c>
       <c r="G7">
         <v>0.305</v>
@@ -787,7 +787,7 @@
         <v>0.1828908554572271</v>
       </c>
       <c r="F8">
-        <v>0.001186184338600688</v>
+        <v>0.001186184338600703</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -814,7 +814,7 @@
         <v>39</v>
       </c>
       <c r="P8">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -836,7 +836,7 @@
         <v>0.2052980132450331</v>
       </c>
       <c r="F9">
-        <v>0.004753484704333065</v>
+        <v>0.004753484704333157</v>
       </c>
       <c r="G9">
         <v>0.8890306122448979</v>
@@ -866,7 +866,7 @@
         <v>36</v>
       </c>
       <c r="P9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9">
         <v>15</v>
@@ -891,7 +891,7 @@
         <v>0.2052980132450331</v>
       </c>
       <c r="F10">
-        <v>0.004753484704333065</v>
+        <v>0.004753484704333175</v>
       </c>
       <c r="G10">
         <v>0.8890306122448979</v>
@@ -946,7 +946,7 @@
         <v>0.1861861861861862</v>
       </c>
       <c r="F11">
-        <v>0.00277192632683684</v>
+        <v>0.002771926326836881</v>
       </c>
       <c r="G11">
         <v>0.9225</v>
@@ -976,7 +976,7 @@
         <v>38</v>
       </c>
       <c r="P11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -1001,7 +1001,7 @@
         <v>0.248</v>
       </c>
       <c r="F12">
-        <v>0.4792480623402843</v>
+        <v>0.4792480623402849</v>
       </c>
       <c r="G12">
         <v>0.4073600481859411</v>
@@ -1056,7 +1056,7 @@
         <v>0.2375478927203065</v>
       </c>
       <c r="F13">
-        <v>0.02413727288602284</v>
+        <v>0.02413727288602295</v>
       </c>
       <c r="G13">
         <v>0.7402469135802467</v>
@@ -1086,7 +1086,7 @@
         <v>31</v>
       </c>
       <c r="P13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q13">
         <v>15</v>
@@ -1111,7 +1111,7 @@
         <v>0.2339622641509434</v>
       </c>
       <c r="F14">
-        <v>0.2745492459451341</v>
+        <v>0.2745492459451344</v>
       </c>
       <c r="G14">
         <v>0.7469444444444444</v>
@@ -1166,7 +1166,7 @@
         <v>0.2271062271062271</v>
       </c>
       <c r="F15">
-        <v>0.01091136045999178</v>
+        <v>0.01091136045999191</v>
       </c>
       <c r="G15">
         <v>0.3401000000000001</v>
@@ -1221,7 +1221,7 @@
         <v>0.2583333333333334</v>
       </c>
       <c r="F16">
-        <v>0.1455854394958987</v>
+        <v>0.1455854394958988</v>
       </c>
       <c r="G16">
         <v>0.9027777777777779</v>
@@ -1251,7 +1251,7 @@
         <v>37</v>
       </c>
       <c r="P16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q16">
         <v>15</v>
@@ -1276,7 +1276,7 @@
         <v>0.256198347107438</v>
       </c>
       <c r="F17">
-        <v>0.5186239472089462</v>
+        <v>0.5186239472089466</v>
       </c>
       <c r="G17">
         <v>0.4151929209183673</v>
@@ -1331,7 +1331,7 @@
         <v>0.1931464174454829</v>
       </c>
       <c r="F18">
-        <v>0.04986997364462029</v>
+        <v>0.04986997364462036</v>
       </c>
       <c r="G18">
         <v>0.9027777777777779</v>
@@ -1361,7 +1361,7 @@
         <v>37</v>
       </c>
       <c r="P18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q18">
         <v>15</v>
@@ -1386,7 +1386,7 @@
         <v>0.2145328719723184</v>
       </c>
       <c r="F19">
-        <v>0.04448123221594964</v>
+        <v>0.0444812322159497</v>
       </c>
       <c r="G19">
         <v>0.6111111111111112</v>
@@ -1416,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="P19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -1441,7 +1441,7 @@
         <v>0.3195876288659794</v>
       </c>
       <c r="F20">
-        <v>0.05378569674578825</v>
+        <v>0.05378569674578847</v>
       </c>
       <c r="G20">
         <v>0.2622448979591837</v>
@@ -1471,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="P20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -1496,7 +1496,7 @@
         <v>0.2897196261682243</v>
       </c>
       <c r="F21">
-        <v>0.1019516679235185</v>
+        <v>0.1019516679235187</v>
       </c>
       <c r="G21">
         <v>0.4822530864197531</v>
@@ -1526,7 +1526,7 @@
         <v>21</v>
       </c>
       <c r="P21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -1551,7 +1551,7 @@
         <v>0.248</v>
       </c>
       <c r="F22">
-        <v>0.02689303999999596</v>
+        <v>0.02689303999999604</v>
       </c>
       <c r="G22">
         <v>0.3792</v>
@@ -1581,7 +1581,7 @@
         <v>14</v>
       </c>
       <c r="P22">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -1606,7 +1606,7 @@
         <v>0.1861861861861862</v>
       </c>
       <c r="F23">
-        <v>0.002771926326836852</v>
+        <v>0.002771926326836883</v>
       </c>
       <c r="G23">
         <v>0.9225</v>
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="P23">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q23">
         <v>15</v>
@@ -1661,7 +1661,7 @@
         <v>0.2123287671232877</v>
       </c>
       <c r="F24">
-        <v>0.003154190793945078</v>
+        <v>0.003154190793945124</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1688,7 +1688,7 @@
         <v>39</v>
       </c>
       <c r="P24">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -1765,7 +1765,7 @@
         <v>0.25</v>
       </c>
       <c r="F26">
-        <v>0.01468630870620834</v>
+        <v>0.01468630870620849</v>
       </c>
       <c r="G26">
         <v>0.686530612244898</v>
@@ -1820,7 +1820,7 @@
         <v>0.1776504297994269</v>
       </c>
       <c r="F27">
-        <v>0.01130002982502747</v>
+        <v>0.01130002982502753</v>
       </c>
       <c r="G27">
         <v>1.006944444444444</v>
@@ -1850,7 +1850,7 @@
         <v>40</v>
       </c>
       <c r="P27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q27">
         <v>15</v>
@@ -1875,7 +1875,7 @@
         <v>0.1776504297994269</v>
       </c>
       <c r="F28">
-        <v>0.01130002982502749</v>
+        <v>0.01130002982502753</v>
       </c>
       <c r="G28">
         <v>1.006944444444444</v>
@@ -1905,7 +1905,7 @@
         <v>40</v>
       </c>
       <c r="P28">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q28">
         <v>15</v>
@@ -1930,7 +1930,7 @@
         <v>0.1931464174454829</v>
       </c>
       <c r="F29">
-        <v>0.04986997364462029</v>
+        <v>0.04986997364462038</v>
       </c>
       <c r="G29">
         <v>0.9027777777777779</v>
@@ -1960,7 +1960,7 @@
         <v>37</v>
       </c>
       <c r="P29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q29">
         <v>15</v>
@@ -1985,7 +1985,7 @@
         <v>0.2627118644067797</v>
       </c>
       <c r="F30">
-        <v>0.2852074932652393</v>
+        <v>0.2852074932652395</v>
       </c>
       <c r="G30">
         <v>0.4175701530612245</v>
@@ -2040,7 +2040,7 @@
         <v>0.2322097378277154</v>
       </c>
       <c r="F31">
-        <v>0.1556265945531602</v>
+        <v>0.1556265945531604</v>
       </c>
       <c r="G31">
         <v>0.7608506944444444</v>
@@ -2095,7 +2095,7 @@
         <v>0.2375478927203065</v>
       </c>
       <c r="F32">
-        <v>0.1963072587097577</v>
+        <v>0.1963072587097579</v>
       </c>
       <c r="G32">
         <v>0.34765625</v>
@@ -2150,7 +2150,7 @@
         <v>0.2966507177033493</v>
       </c>
       <c r="F33">
-        <v>0.6068633760117337</v>
+        <v>0.6068633760117342</v>
       </c>
       <c r="G33">
         <v>0.2340364583333334</v>
@@ -2205,7 +2205,7 @@
         <v>0.246031746031746</v>
       </c>
       <c r="F34">
-        <v>0.5270445030072249</v>
+        <v>0.5270445030072255</v>
       </c>
       <c r="G34">
         <v>0.4721237244897959</v>
@@ -2260,7 +2260,7 @@
         <v>0.2421875</v>
       </c>
       <c r="F35">
-        <v>0.100653241049135</v>
+        <v>0.1006532410491352</v>
       </c>
       <c r="G35">
         <v>0.4822530864197531</v>
@@ -2290,7 +2290,7 @@
         <v>21</v>
       </c>
       <c r="P35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q35">
         <v>11</v>
@@ -2315,7 +2315,7 @@
         <v>0.2767857142857143</v>
       </c>
       <c r="F36">
-        <v>0.05545829422091493</v>
+        <v>0.05545829422091506</v>
       </c>
       <c r="G36">
         <v>0.686530612244898</v>
@@ -2345,7 +2345,7 @@
         <v>28</v>
       </c>
       <c r="P36">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q36">
         <v>15</v>
@@ -2370,7 +2370,7 @@
         <v>0.1839762611275964</v>
       </c>
       <c r="F37">
-        <v>0.001236945685588712</v>
+        <v>0.001236945685588772</v>
       </c>
       <c r="G37">
         <v>0.5</v>
@@ -2400,7 +2400,7 @@
         <v>22</v>
       </c>
       <c r="P37">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>0.2910798122065728</v>
       </c>
       <c r="F38">
-        <v>0.0681204827010662</v>
+        <v>0.06812048270106638</v>
       </c>
       <c r="G38">
         <v>0.4414448979591837</v>
@@ -2455,7 +2455,7 @@
         <v>18</v>
       </c>
       <c r="P38">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q38">
         <v>12</v>
@@ -2480,7 +2480,7 @@
         <v>0.2431372549019608</v>
       </c>
       <c r="F39">
-        <v>0.01089577315301351</v>
+        <v>0.01089577315301357</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>0.2393822393822394</v>
       </c>
       <c r="F40">
-        <v>0.4382144437328443</v>
+        <v>0.4382144437328445</v>
       </c>
       <c r="G40">
         <v>0.5292881944444444</v>
@@ -2559,7 +2559,7 @@
         <v>24</v>
       </c>
       <c r="P40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q40">
         <v>14</v>
@@ -2614,7 +2614,7 @@
         <v>24</v>
       </c>
       <c r="P41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q41">
         <v>14</v>
@@ -2639,7 +2639,7 @@
         <v>0.2375478927203065</v>
       </c>
       <c r="F42">
-        <v>0.02413727288602282</v>
+        <v>0.02413727288602295</v>
       </c>
       <c r="G42">
         <v>0.7402469135802467</v>
@@ -2694,7 +2694,7 @@
         <v>0.2672413793103448</v>
       </c>
       <c r="F43">
-        <v>0.04165861565409003</v>
+        <v>0.04165861565409015</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2721,7 +2721,7 @@
         <v>39</v>
       </c>
       <c r="P43">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -2743,7 +2743,7 @@
         <v>0.256198347107438</v>
       </c>
       <c r="F44">
-        <v>0.01871153087579489</v>
+        <v>0.01871153087579515</v>
       </c>
       <c r="G44">
         <v>0.2601133786848072</v>
@@ -2798,7 +2798,7 @@
         <v>0.2046204620462046</v>
       </c>
       <c r="F45">
-        <v>0.003790535553194836</v>
+        <v>0.003790535553194915</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         <v>39</v>
       </c>
       <c r="P45">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46">
@@ -2847,7 +2847,7 @@
         <v>0.2375478927203065</v>
       </c>
       <c r="F46">
-        <v>0.2279984327127861</v>
+        <v>0.2279984327127863</v>
       </c>
       <c r="G46">
         <v>0.70703125</v>
@@ -2902,7 +2902,7 @@
         <v>0.2066666666666667</v>
       </c>
       <c r="F47">
-        <v>0.005298875417603861</v>
+        <v>0.005298875417603949</v>
       </c>
       <c r="G47">
         <v>0.6949483497102544</v>
@@ -2932,7 +2932,7 @@
         <v>29</v>
       </c>
       <c r="P47">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q47">
         <v>14</v>
@@ -2957,7 +2957,7 @@
         <v>0.2066666666666667</v>
       </c>
       <c r="F48">
-        <v>0.005298875417603878</v>
+        <v>0.005298875417603904</v>
       </c>
       <c r="G48">
         <v>0.6949483497102544</v>
@@ -2987,7 +2987,7 @@
         <v>29</v>
       </c>
       <c r="P48">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48">
         <v>14</v>
@@ -3012,7 +3012,7 @@
         <v>0.161038961038961</v>
       </c>
       <c r="F49">
-        <v>0.006905590848685309</v>
+        <v>0.006905590848685334</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3061,7 +3061,7 @@
         <v>0.191358024691358</v>
       </c>
       <c r="F50">
-        <v>0.03408863327290831</v>
+        <v>0.0340886332729084</v>
       </c>
       <c r="G50">
         <v>0.5</v>
@@ -3091,7 +3091,7 @@
         <v>22</v>
       </c>
       <c r="P50">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -3116,7 +3116,7 @@
         <v>0.1722222222222222</v>
       </c>
       <c r="F51">
-        <v>0.002146866100449402</v>
+        <v>0.002146866100449434</v>
       </c>
       <c r="G51">
         <v>0.8888888888888888</v>
@@ -3146,7 +3146,7 @@
         <v>35</v>
       </c>
       <c r="P51">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q51">
         <v>15</v>
@@ -3171,7 +3171,7 @@
         <v>0.2330827067669173</v>
       </c>
       <c r="F52">
-        <v>0.08230408821726889</v>
+        <v>0.08230408821726902</v>
       </c>
       <c r="G52">
         <v>0.78125</v>
@@ -3201,7 +3201,7 @@
         <v>34</v>
       </c>
       <c r="P52">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q52">
         <v>15</v>
@@ -3226,7 +3226,7 @@
         <v>0.1557788944723618</v>
       </c>
       <c r="F53">
-        <v>0.0002505773915409933</v>
+        <v>0.0002505773915410115</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>39</v>
       </c>
       <c r="P53">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54">
@@ -3275,7 +3275,7 @@
         <v>0.2818181818181818</v>
       </c>
       <c r="F54">
-        <v>0.121076913323043</v>
+        <v>0.1210769133230432</v>
       </c>
       <c r="G54">
         <v>0.36328125</v>
@@ -3305,7 +3305,7 @@
         <v>13</v>
       </c>
       <c r="P54">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -3330,7 +3330,7 @@
         <v>0.1993569131832797</v>
       </c>
       <c r="F55">
-        <v>0.005447925395850139</v>
+        <v>0.005447925395850168</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -3379,7 +3379,7 @@
         <v>0.3444444444444444</v>
       </c>
       <c r="F56">
-        <v>0.573079880473893</v>
+        <v>0.5730798804738928</v>
       </c>
       <c r="G56">
         <v>0.2646517148526077</v>
@@ -3434,7 +3434,7 @@
         <v>0.2583333333333334</v>
       </c>
       <c r="F57">
-        <v>0.1455854394958987</v>
+        <v>0.1455854394958989</v>
       </c>
       <c r="G57">
         <v>0.9027777777777779</v>
@@ -3489,7 +3489,7 @@
         <v>0.2339622641509434</v>
       </c>
       <c r="F58">
-        <v>0.1613689194542332</v>
+        <v>0.1613689194542331</v>
       </c>
       <c r="G58">
         <v>0.5017361111111112</v>
@@ -3544,7 +3544,7 @@
         <v>0.2672413793103448</v>
       </c>
       <c r="F59">
-        <v>0.1969762873652421</v>
+        <v>0.1969762873652423</v>
       </c>
       <c r="G59">
         <v>0.3472222222222222</v>
@@ -3599,7 +3599,7 @@
         <v>0.1931464174454829</v>
       </c>
       <c r="F60">
-        <v>0.04986997364462029</v>
+        <v>0.04986997364462038</v>
       </c>
       <c r="G60">
         <v>0.9027777777777779</v>
@@ -3629,7 +3629,7 @@
         <v>37</v>
       </c>
       <c r="P60">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -3654,7 +3654,7 @@
         <v>0.1931464174454829</v>
       </c>
       <c r="F61">
-        <v>0.04986997364462027</v>
+        <v>0.04986997364462038</v>
       </c>
       <c r="G61">
         <v>0.9027777777777779</v>
@@ -3684,7 +3684,7 @@
         <v>37</v>
       </c>
       <c r="P61">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q61">
         <v>15</v>
@@ -3709,7 +3709,7 @@
         <v>0.2206405693950178</v>
       </c>
       <c r="F62">
-        <v>0.02452746104359535</v>
+        <v>0.02452746104359537</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3736,7 +3736,7 @@
         <v>39</v>
       </c>
       <c r="P62">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
@@ -3758,7 +3758,7 @@
         <v>0.2384615384615385</v>
       </c>
       <c r="F63">
-        <v>0.3552799123856282</v>
+        <v>0.3552799123856284</v>
       </c>
       <c r="G63">
         <v>0.6091666666666665</v>
@@ -3813,7 +3813,7 @@
         <v>0.2938388625592417</v>
       </c>
       <c r="F64">
-        <v>0.7252640270422734</v>
+        <v>0.7252640270422741</v>
       </c>
       <c r="G64">
         <v>0.2385430839002267</v>

--- a/output/pharma_nordic_example_centralitymetrics.xlsx
+++ b/output/pharma_nordic_example_centralitymetrics.xlsx
@@ -463,7 +463,7 @@
         <v>0.2339622641509434</v>
       </c>
       <c r="F2">
-        <v>0.1627043167340305</v>
+        <v>0.1627043167340304</v>
       </c>
       <c r="G2">
         <v>0.6566840277777779</v>
@@ -573,7 +573,7 @@
         <v>0.3625730994152047</v>
       </c>
       <c r="F4">
-        <v>0.2056428338727421</v>
+        <v>0.2056428338727415</v>
       </c>
       <c r="G4">
         <v>0.1773469387755102</v>
@@ -628,7 +628,7 @@
         <v>0.2123287671232877</v>
       </c>
       <c r="F5">
-        <v>0.00315419079394511</v>
+        <v>0.003154190793944992</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="P5">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -677,7 +677,7 @@
         <v>0.2683982683982684</v>
       </c>
       <c r="F6">
-        <v>0.01557029016105826</v>
+        <v>0.01557029016105778</v>
       </c>
       <c r="G6">
         <v>0.2401</v>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -732,7 +732,7 @@
         <v>0.223021582733813</v>
       </c>
       <c r="F7">
-        <v>0.005855458830191925</v>
+        <v>0.005855458830191622</v>
       </c>
       <c r="G7">
         <v>0.305</v>
@@ -762,7 +762,7 @@
         <v>9</v>
       </c>
       <c r="P7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -787,7 +787,7 @@
         <v>0.1828908554572271</v>
       </c>
       <c r="F8">
-        <v>0.001186184338600703</v>
+        <v>0.001186184338600637</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -814,7 +814,7 @@
         <v>39</v>
       </c>
       <c r="P8">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -836,7 +836,7 @@
         <v>0.2052980132450331</v>
       </c>
       <c r="F9">
-        <v>0.004753484704333157</v>
+        <v>0.004753484704333005</v>
       </c>
       <c r="G9">
         <v>0.8890306122448979</v>
@@ -891,7 +891,7 @@
         <v>0.2052980132450331</v>
       </c>
       <c r="F10">
-        <v>0.004753484704333175</v>
+        <v>0.004753484704332992</v>
       </c>
       <c r="G10">
         <v>0.8890306122448979</v>
@@ -921,7 +921,7 @@
         <v>36</v>
       </c>
       <c r="P10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q10">
         <v>15</v>
@@ -946,7 +946,7 @@
         <v>0.1861861861861862</v>
       </c>
       <c r="F11">
-        <v>0.002771926326836881</v>
+        <v>0.002771926326836723</v>
       </c>
       <c r="G11">
         <v>0.9225</v>
@@ -1001,7 +1001,7 @@
         <v>0.248</v>
       </c>
       <c r="F12">
-        <v>0.4792480623402849</v>
+        <v>0.4792480623402842</v>
       </c>
       <c r="G12">
         <v>0.4073600481859411</v>
@@ -1056,7 +1056,7 @@
         <v>0.2375478927203065</v>
       </c>
       <c r="F13">
-        <v>0.02413727288602295</v>
+        <v>0.02413727288602263</v>
       </c>
       <c r="G13">
         <v>0.7402469135802467</v>
@@ -1086,7 +1086,7 @@
         <v>31</v>
       </c>
       <c r="P13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q13">
         <v>15</v>
@@ -1111,7 +1111,7 @@
         <v>0.2339622641509434</v>
       </c>
       <c r="F14">
-        <v>0.2745492459451344</v>
+        <v>0.2745492459451343</v>
       </c>
       <c r="G14">
         <v>0.7469444444444444</v>
@@ -1166,7 +1166,7 @@
         <v>0.2271062271062271</v>
       </c>
       <c r="F15">
-        <v>0.01091136045999191</v>
+        <v>0.01091136045999154</v>
       </c>
       <c r="G15">
         <v>0.3401000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="P15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -1221,7 +1221,7 @@
         <v>0.2583333333333334</v>
       </c>
       <c r="F16">
-        <v>0.1455854394958988</v>
+        <v>0.1455854394958987</v>
       </c>
       <c r="G16">
         <v>0.9027777777777779</v>
@@ -1251,7 +1251,7 @@
         <v>37</v>
       </c>
       <c r="P16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q16">
         <v>15</v>
@@ -1331,7 +1331,7 @@
         <v>0.1931464174454829</v>
       </c>
       <c r="F18">
-        <v>0.04986997364462036</v>
+        <v>0.04986997364462029</v>
       </c>
       <c r="G18">
         <v>0.9027777777777779</v>
@@ -1361,7 +1361,7 @@
         <v>37</v>
       </c>
       <c r="P18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18">
         <v>15</v>
@@ -1386,7 +1386,7 @@
         <v>0.2145328719723184</v>
       </c>
       <c r="F19">
-        <v>0.0444812322159497</v>
+        <v>0.04448123221594959</v>
       </c>
       <c r="G19">
         <v>0.6111111111111112</v>
@@ -1441,7 +1441,7 @@
         <v>0.3195876288659794</v>
       </c>
       <c r="F20">
-        <v>0.05378569674578847</v>
+        <v>0.05378569674578799</v>
       </c>
       <c r="G20">
         <v>0.2622448979591837</v>
@@ -1496,7 +1496,7 @@
         <v>0.2897196261682243</v>
       </c>
       <c r="F21">
-        <v>0.1019516679235187</v>
+        <v>0.1019516679235184</v>
       </c>
       <c r="G21">
         <v>0.4822530864197531</v>
@@ -1551,7 +1551,7 @@
         <v>0.248</v>
       </c>
       <c r="F22">
-        <v>0.02689303999999604</v>
+        <v>0.02689303999999573</v>
       </c>
       <c r="G22">
         <v>0.3792</v>
@@ -1606,7 +1606,7 @@
         <v>0.1861861861861862</v>
       </c>
       <c r="F23">
-        <v>0.002771926326836883</v>
+        <v>0.002771926326836721</v>
       </c>
       <c r="G23">
         <v>0.9225</v>
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="P23">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q23">
         <v>15</v>
@@ -1661,7 +1661,7 @@
         <v>0.2123287671232877</v>
       </c>
       <c r="F24">
-        <v>0.003154190793945124</v>
+        <v>0.003154190793944993</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1688,7 +1688,7 @@
         <v>39</v>
       </c>
       <c r="P24">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -1765,7 +1765,7 @@
         <v>0.25</v>
       </c>
       <c r="F26">
-        <v>0.01468630870620849</v>
+        <v>0.01468630870620819</v>
       </c>
       <c r="G26">
         <v>0.686530612244898</v>
@@ -1795,7 +1795,7 @@
         <v>28</v>
       </c>
       <c r="P26">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q26">
         <v>15</v>
@@ -1820,7 +1820,7 @@
         <v>0.1776504297994269</v>
       </c>
       <c r="F27">
-        <v>0.01130002982502753</v>
+        <v>0.01130002982502744</v>
       </c>
       <c r="G27">
         <v>1.006944444444444</v>
@@ -1850,7 +1850,7 @@
         <v>40</v>
       </c>
       <c r="P27">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q27">
         <v>15</v>
@@ -1875,7 +1875,7 @@
         <v>0.1776504297994269</v>
       </c>
       <c r="F28">
-        <v>0.01130002982502753</v>
+        <v>0.01130002982502746</v>
       </c>
       <c r="G28">
         <v>1.006944444444444</v>
@@ -1930,7 +1930,7 @@
         <v>0.1931464174454829</v>
       </c>
       <c r="F29">
-        <v>0.04986997364462038</v>
+        <v>0.04986997364462026</v>
       </c>
       <c r="G29">
         <v>0.9027777777777779</v>
@@ -1985,7 +1985,7 @@
         <v>0.2627118644067797</v>
       </c>
       <c r="F30">
-        <v>0.2852074932652395</v>
+        <v>0.2852074932652394</v>
       </c>
       <c r="G30">
         <v>0.4175701530612245</v>
@@ -2095,7 +2095,7 @@
         <v>0.2375478927203065</v>
       </c>
       <c r="F32">
-        <v>0.1963072587097579</v>
+        <v>0.1963072587097577</v>
       </c>
       <c r="G32">
         <v>0.34765625</v>
@@ -2150,7 +2150,7 @@
         <v>0.2966507177033493</v>
       </c>
       <c r="F33">
-        <v>0.6068633760117342</v>
+        <v>0.6068633760117341</v>
       </c>
       <c r="G33">
         <v>0.2340364583333334</v>
@@ -2205,7 +2205,7 @@
         <v>0.246031746031746</v>
       </c>
       <c r="F34">
-        <v>0.5270445030072255</v>
+        <v>0.5270445030072254</v>
       </c>
       <c r="G34">
         <v>0.4721237244897959</v>
@@ -2260,7 +2260,7 @@
         <v>0.2421875</v>
       </c>
       <c r="F35">
-        <v>0.1006532410491352</v>
+        <v>0.100653241049135</v>
       </c>
       <c r="G35">
         <v>0.4822530864197531</v>
@@ -2315,7 +2315,7 @@
         <v>0.2767857142857143</v>
       </c>
       <c r="F36">
-        <v>0.05545829422091506</v>
+        <v>0.05545829422091476</v>
       </c>
       <c r="G36">
         <v>0.686530612244898</v>
@@ -2370,7 +2370,7 @@
         <v>0.1839762611275964</v>
       </c>
       <c r="F37">
-        <v>0.001236945685588772</v>
+        <v>0.001236945685588666</v>
       </c>
       <c r="G37">
         <v>0.5</v>
@@ -2400,7 +2400,7 @@
         <v>22</v>
       </c>
       <c r="P37">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>0.2910798122065728</v>
       </c>
       <c r="F38">
-        <v>0.06812048270106638</v>
+        <v>0.06812048270106584</v>
       </c>
       <c r="G38">
         <v>0.4414448979591837</v>
@@ -2480,7 +2480,7 @@
         <v>0.2431372549019608</v>
       </c>
       <c r="F39">
-        <v>0.01089577315301357</v>
+        <v>0.01089577315301344</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2507,7 +2507,7 @@
         <v>39</v>
       </c>
       <c r="P39">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
@@ -2559,7 +2559,7 @@
         <v>24</v>
       </c>
       <c r="P40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q40">
         <v>14</v>
@@ -2584,7 +2584,7 @@
         <v>0.2393822393822394</v>
       </c>
       <c r="F41">
-        <v>0.4382144437328444</v>
+        <v>0.4382144437328446</v>
       </c>
       <c r="G41">
         <v>0.5292881944444444</v>
@@ -2614,7 +2614,7 @@
         <v>24</v>
       </c>
       <c r="P41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q41">
         <v>14</v>
@@ -2639,7 +2639,7 @@
         <v>0.2375478927203065</v>
       </c>
       <c r="F42">
-        <v>0.02413727288602295</v>
+        <v>0.02413727288602264</v>
       </c>
       <c r="G42">
         <v>0.7402469135802467</v>
@@ -2694,7 +2694,7 @@
         <v>0.2672413793103448</v>
       </c>
       <c r="F43">
-        <v>0.04165861565409015</v>
+        <v>0.04165861565408997</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2743,7 +2743,7 @@
         <v>0.256198347107438</v>
       </c>
       <c r="F44">
-        <v>0.01871153087579515</v>
+        <v>0.01871153087579479</v>
       </c>
       <c r="G44">
         <v>0.2601133786848072</v>
@@ -2773,7 +2773,7 @@
         <v>6</v>
       </c>
       <c r="P44">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -2798,7 +2798,7 @@
         <v>0.2046204620462046</v>
       </c>
       <c r="F45">
-        <v>0.003790535553194915</v>
+        <v>0.003790535553194804</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         <v>39</v>
       </c>
       <c r="P45">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
@@ -2847,7 +2847,7 @@
         <v>0.2375478927203065</v>
       </c>
       <c r="F46">
-        <v>0.2279984327127863</v>
+        <v>0.2279984327127862</v>
       </c>
       <c r="G46">
         <v>0.70703125</v>
@@ -2902,7 +2902,7 @@
         <v>0.2066666666666667</v>
       </c>
       <c r="F47">
-        <v>0.005298875417603949</v>
+        <v>0.005298875417603733</v>
       </c>
       <c r="G47">
         <v>0.6949483497102544</v>
@@ -2932,7 +2932,7 @@
         <v>29</v>
       </c>
       <c r="P47">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q47">
         <v>14</v>
@@ -2957,7 +2957,7 @@
         <v>0.2066666666666667</v>
       </c>
       <c r="F48">
-        <v>0.005298875417603904</v>
+        <v>0.005298875417603752</v>
       </c>
       <c r="G48">
         <v>0.6949483497102544</v>
@@ -3012,7 +3012,7 @@
         <v>0.161038961038961</v>
       </c>
       <c r="F49">
-        <v>0.006905590848685334</v>
+        <v>0.006905590848685299</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3039,7 +3039,7 @@
         <v>39</v>
       </c>
       <c r="P49">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
@@ -3061,7 +3061,7 @@
         <v>0.191358024691358</v>
       </c>
       <c r="F50">
-        <v>0.0340886332729084</v>
+        <v>0.03408863327290831</v>
       </c>
       <c r="G50">
         <v>0.5</v>
@@ -3116,7 +3116,7 @@
         <v>0.1722222222222222</v>
       </c>
       <c r="F51">
-        <v>0.002146866100449434</v>
+        <v>0.002146866100449338</v>
       </c>
       <c r="G51">
         <v>0.8888888888888888</v>
@@ -3146,7 +3146,7 @@
         <v>35</v>
       </c>
       <c r="P51">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q51">
         <v>15</v>
@@ -3171,7 +3171,7 @@
         <v>0.2330827067669173</v>
       </c>
       <c r="F52">
-        <v>0.08230408821726902</v>
+        <v>0.08230408821726889</v>
       </c>
       <c r="G52">
         <v>0.78125</v>
@@ -3226,7 +3226,7 @@
         <v>0.1557788944723618</v>
       </c>
       <c r="F53">
-        <v>0.0002505773915410115</v>
+        <v>0.0002505773915409757</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>39</v>
       </c>
       <c r="P53">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54">
@@ -3275,7 +3275,7 @@
         <v>0.2818181818181818</v>
       </c>
       <c r="F54">
-        <v>0.1210769133230432</v>
+        <v>0.1210769133230429</v>
       </c>
       <c r="G54">
         <v>0.36328125</v>
@@ -3330,7 +3330,7 @@
         <v>0.1993569131832797</v>
       </c>
       <c r="F55">
-        <v>0.005447925395850168</v>
+        <v>0.005447925395850057</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         <v>39</v>
       </c>
       <c r="P55">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56">
@@ -3379,7 +3379,7 @@
         <v>0.3444444444444444</v>
       </c>
       <c r="F56">
-        <v>0.5730798804738928</v>
+        <v>0.5730798804738926</v>
       </c>
       <c r="G56">
         <v>0.2646517148526077</v>
@@ -3434,7 +3434,7 @@
         <v>0.2583333333333334</v>
       </c>
       <c r="F57">
-        <v>0.1455854394958989</v>
+        <v>0.1455854394958987</v>
       </c>
       <c r="G57">
         <v>0.9027777777777779</v>
@@ -3464,7 +3464,7 @@
         <v>37</v>
       </c>
       <c r="P57">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q57">
         <v>15</v>
@@ -3544,7 +3544,7 @@
         <v>0.2672413793103448</v>
       </c>
       <c r="F59">
-        <v>0.1969762873652423</v>
+        <v>0.1969762873652421</v>
       </c>
       <c r="G59">
         <v>0.3472222222222222</v>
@@ -3599,7 +3599,7 @@
         <v>0.1931464174454829</v>
       </c>
       <c r="F60">
-        <v>0.04986997364462038</v>
+        <v>0.04986997364462029</v>
       </c>
       <c r="G60">
         <v>0.9027777777777779</v>
@@ -3629,7 +3629,7 @@
         <v>37</v>
       </c>
       <c r="P60">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q60">
         <v>15</v>
@@ -3654,7 +3654,7 @@
         <v>0.1931464174454829</v>
       </c>
       <c r="F61">
-        <v>0.04986997364462038</v>
+        <v>0.04986997364462026</v>
       </c>
       <c r="G61">
         <v>0.9027777777777779</v>
@@ -3684,7 +3684,7 @@
         <v>37</v>
       </c>
       <c r="P61">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q61">
         <v>15</v>
@@ -3709,7 +3709,7 @@
         <v>0.2206405693950178</v>
       </c>
       <c r="F62">
-        <v>0.02452746104359537</v>
+        <v>0.02452746104359533</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3813,7 +3813,7 @@
         <v>0.2938388625592417</v>
       </c>
       <c r="F64">
-        <v>0.7252640270422741</v>
+        <v>0.7252640270422744</v>
       </c>
       <c r="G64">
         <v>0.2385430839002267</v>
